--- a/Vue/vue架构设计方案.xlsx
+++ b/Vue/vue架构设计方案.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\技术学习\Learning\Vue\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{322A9447-0DE8-44DD-A90A-1A77CEFC2904}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B14F431B-2DB7-4A33-8309-683D4B77CD92}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8F62852D-14FA-43F2-B850-504284820A11}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="90">
   <si>
     <t>src</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -110,10 +111,6 @@
   </si>
   <si>
     <t>store.js</t>
-  </si>
-  <si>
-    <t>store.js</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>架构主要目录结构</t>
@@ -417,10 +414,6 @@
   </si>
   <si>
     <t>scripts/js</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>common</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -641,10 +634,10 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -971,8 +964,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5069B792-660E-437A-BF8A-3688592FEF41}">
   <dimension ref="B2:I63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25:G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.21875" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -987,7 +980,7 @@
   <sheetData>
     <row r="2" spans="2:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="27" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C2" s="28"/>
       <c r="D2" s="28"/>
@@ -1017,7 +1010,7 @@
       <c r="D4" s="5"/>
       <c r="E4" s="7"/>
       <c r="F4" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G4" s="8"/>
       <c r="H4" s="5"/>
@@ -1032,7 +1025,7 @@
       <c r="E5" s="7"/>
       <c r="F5" s="5"/>
       <c r="G5" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H5" s="5"/>
       <c r="I5" s="6"/>
@@ -1041,12 +1034,12 @@
       <c r="B6" s="4"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="5"/>
       <c r="G6" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H6" s="5"/>
       <c r="I6" s="6"/>
@@ -1060,7 +1053,7 @@
       <c r="E7" s="7"/>
       <c r="F7" s="5"/>
       <c r="G7" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H7" s="5"/>
       <c r="I7" s="6"/>
@@ -1072,7 +1065,7 @@
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F8" s="8"/>
       <c r="G8" s="5"/>
@@ -1082,11 +1075,11 @@
       <c r="B9" s="4"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G9" s="5"/>
       <c r="I9" s="6"/>
@@ -1096,11 +1089,11 @@
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F10" s="5"/>
       <c r="G10" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I10" s="6"/>
     </row>
@@ -1109,11 +1102,11 @@
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F11" s="5"/>
       <c r="G11" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I11" s="6"/>
     </row>
@@ -1122,11 +1115,11 @@
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F12" s="5"/>
       <c r="G12" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I12" s="6"/>
     </row>
@@ -1138,7 +1131,7 @@
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G13" s="9"/>
       <c r="I13" s="6"/>
@@ -1151,7 +1144,7 @@
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
@@ -1166,7 +1159,7 @@
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
       <c r="G15" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H15" s="5"/>
       <c r="I15" s="6"/>
@@ -1180,7 +1173,7 @@
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
       <c r="G16" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H16" s="5"/>
       <c r="I16" s="6"/>
@@ -1193,7 +1186,7 @@
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
       <c r="F17" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G17" s="9"/>
       <c r="H17" s="5"/>
@@ -1203,11 +1196,11 @@
       <c r="B18" s="4"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G18" s="9"/>
       <c r="H18" s="5"/>
@@ -1218,11 +1211,11 @@
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F19" s="5"/>
       <c r="G19" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H19" s="5"/>
       <c r="I19" s="6"/>
@@ -1231,11 +1224,11 @@
       <c r="B20" s="4"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G20" s="9"/>
       <c r="H20" s="5"/>
@@ -1243,43 +1236,36 @@
     </row>
     <row r="21" spans="2:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="4"/>
-      <c r="C21" t="s">
-        <v>91</v>
-      </c>
-      <c r="D21" s="5" t="s">
+      <c r="C21" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5" t="s">
-        <v>35</v>
+      <c r="E21" s="5" t="s">
+        <v>34</v>
       </c>
       <c r="H21" s="5"/>
       <c r="I21" s="6"/>
     </row>
     <row r="22" spans="2:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="4"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5" t="s">
+      <c r="D22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
       <c r="H22" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I22" s="6"/>
     </row>
     <row r="23" spans="2:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="4"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5" t="s">
+      <c r="D23" s="5" t="s">
         <v>11</v>
       </c>
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
       <c r="H23" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I23" s="6"/>
     </row>
@@ -1291,7 +1277,7 @@
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
       <c r="F24" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
@@ -1305,7 +1291,7 @@
       </c>
       <c r="E25" s="5"/>
       <c r="F25" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
@@ -1320,7 +1306,7 @@
       </c>
       <c r="F26" s="5"/>
       <c r="G26" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H26" s="5"/>
       <c r="I26" s="6"/>
@@ -1330,11 +1316,11 @@
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
       <c r="E27" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F27" s="5"/>
       <c r="G27" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H27" s="5"/>
       <c r="I27" s="6"/>
@@ -1348,10 +1334,10 @@
       </c>
       <c r="F28" s="5"/>
       <c r="G28" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I28" s="6"/>
     </row>
@@ -1360,11 +1346,11 @@
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
       <c r="E29" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F29" s="5"/>
       <c r="G29" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H29" s="5"/>
       <c r="I29" s="6"/>
@@ -1377,7 +1363,7 @@
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
       <c r="F30" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G30" s="9"/>
       <c r="H30" s="5"/>
@@ -1391,10 +1377,10 @@
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
       <c r="F31" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G31" s="8" t="s">
         <v>53</v>
-      </c>
-      <c r="G31" s="8" t="s">
-        <v>54</v>
       </c>
       <c r="H31" s="5"/>
       <c r="I31" s="6"/>
@@ -1407,10 +1393,10 @@
       <c r="D32" s="11"/>
       <c r="E32" s="11"/>
       <c r="F32" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="G32" s="12" t="s">
         <v>55</v>
-      </c>
-      <c r="G32" s="12" t="s">
-        <v>56</v>
       </c>
       <c r="H32" s="11"/>
       <c r="I32" s="13"/>
@@ -1420,7 +1406,7 @@
     </row>
     <row r="34" spans="2:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C34" s="28"/>
       <c r="D34" s="28"/>
@@ -1432,13 +1418,13 @@
     </row>
     <row r="35" spans="2:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C35" s="23"/>
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
       <c r="F35" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G35" s="8"/>
       <c r="H35" s="8"/>
@@ -1448,13 +1434,13 @@
       <c r="B36" s="14"/>
       <c r="C36" s="7"/>
       <c r="D36" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E36" s="5"/>
-      <c r="F36" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="G36" s="25"/>
+      <c r="F36" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="G36" s="26"/>
       <c r="H36" s="7"/>
       <c r="I36" s="15"/>
     </row>
@@ -1462,13 +1448,13 @@
       <c r="B37" s="14"/>
       <c r="C37" s="7"/>
       <c r="D37" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E37" s="5"/>
-      <c r="F37" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="G37" s="25"/>
+      <c r="F37" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="G37" s="26"/>
       <c r="H37" s="5"/>
       <c r="I37" s="6"/>
     </row>
@@ -1476,13 +1462,13 @@
       <c r="B38" s="14"/>
       <c r="C38" s="7"/>
       <c r="D38" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E38" s="5"/>
+      <c r="F38" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="E38" s="5"/>
-      <c r="F38" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="G38" s="25"/>
+      <c r="G38" s="26"/>
       <c r="H38" s="5"/>
       <c r="I38" s="6"/>
     </row>
@@ -1490,11 +1476,11 @@
       <c r="B39" s="14"/>
       <c r="C39" s="7"/>
       <c r="D39" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E39" s="5"/>
       <c r="F39" s="24" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G39" s="24"/>
       <c r="H39" s="5"/>
@@ -1504,11 +1490,11 @@
       <c r="B40" s="14"/>
       <c r="C40" s="7"/>
       <c r="D40" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E40" s="5"/>
       <c r="F40" s="24" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G40" s="24"/>
       <c r="H40" s="5"/>
@@ -1516,13 +1502,13 @@
     </row>
     <row r="41" spans="2:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C41" s="23"/>
       <c r="D41" s="5"/>
       <c r="E41" s="5"/>
       <c r="F41" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G41" s="24"/>
       <c r="H41" s="5"/>
@@ -1532,7 +1518,7 @@
       <c r="B42" s="14"/>
       <c r="C42" s="7"/>
       <c r="D42" s="18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E42" s="5"/>
       <c r="F42" s="5"/>
@@ -1544,11 +1530,11 @@
       <c r="B43" s="14"/>
       <c r="C43" s="7"/>
       <c r="D43" s="18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E43" s="5"/>
       <c r="F43" s="24" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G43" s="24"/>
       <c r="H43" s="5"/>
@@ -1556,7 +1542,7 @@
     </row>
     <row r="44" spans="2:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="22" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C44" s="23"/>
       <c r="D44" s="18"/>
@@ -1570,11 +1556,11 @@
       <c r="B45" s="16"/>
       <c r="C45" s="7"/>
       <c r="D45" s="18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E45" s="5"/>
       <c r="F45" s="24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G45" s="24"/>
       <c r="H45" s="5"/>
@@ -1588,7 +1574,7 @@
       </c>
       <c r="E46" s="5"/>
       <c r="F46" s="24" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G46" s="24"/>
       <c r="H46" s="5"/>
@@ -1596,41 +1582,41 @@
     </row>
     <row r="47" spans="2:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="22" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C47" s="23"/>
       <c r="D47" s="5"/>
       <c r="E47" s="5"/>
-      <c r="F47" s="26" t="s">
-        <v>71</v>
-      </c>
-      <c r="G47" s="26"/>
+      <c r="F47" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="G47" s="25"/>
       <c r="H47" s="5"/>
       <c r="I47" s="6"/>
     </row>
     <row r="48" spans="2:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C48" s="23"/>
       <c r="D48" s="5"/>
       <c r="E48" s="5"/>
-      <c r="F48" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="G48" s="26"/>
+      <c r="F48" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="G48" s="25"/>
       <c r="H48" s="5"/>
       <c r="I48" s="6"/>
     </row>
     <row r="49" spans="2:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C49" s="20"/>
       <c r="D49" s="11"/>
       <c r="E49" s="11"/>
       <c r="F49" s="21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G49" s="21"/>
       <c r="H49" s="11"/>

--- a/Vue/vue架构设计方案.xlsx
+++ b/Vue/vue架构设计方案.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\技术学习\Learning\Vue\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B14F431B-2DB7-4A33-8309-683D4B77CD92}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{266CFAC0-E864-4A42-B212-0148E50612EA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8F62852D-14FA-43F2-B850-504284820A11}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8F62852D-14FA-43F2-B850-504284820A11}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -615,6 +614,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -623,30 +646,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -964,8 +963,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5069B792-660E-437A-BF8A-3688592FEF41}">
   <dimension ref="B2:I63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25:G29"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.21875" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -979,15 +978,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
       <c r="I2" s="3"/>
     </row>
     <row r="3" spans="2:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -1405,16 +1404,16 @@
       <c r="G33" s="1"/>
     </row>
     <row r="34" spans="2:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="27" t="s">
+      <c r="B34" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="C34" s="28"/>
-      <c r="D34" s="28"/>
-      <c r="E34" s="28"/>
-      <c r="F34" s="28"/>
-      <c r="G34" s="28"/>
-      <c r="H34" s="28"/>
-      <c r="I34" s="29"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="20"/>
+      <c r="H34" s="20"/>
+      <c r="I34" s="21"/>
     </row>
     <row r="35" spans="2:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="22" t="s">
@@ -1437,10 +1436,10 @@
         <v>59</v>
       </c>
       <c r="E36" s="5"/>
-      <c r="F36" s="26" t="s">
+      <c r="F36" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="G36" s="26"/>
+      <c r="G36" s="24"/>
       <c r="H36" s="7"/>
       <c r="I36" s="15"/>
     </row>
@@ -1451,10 +1450,10 @@
         <v>60</v>
       </c>
       <c r="E37" s="5"/>
-      <c r="F37" s="26" t="s">
+      <c r="F37" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="G37" s="26"/>
+      <c r="G37" s="24"/>
       <c r="H37" s="5"/>
       <c r="I37" s="6"/>
     </row>
@@ -1465,10 +1464,10 @@
         <v>66</v>
       </c>
       <c r="E38" s="5"/>
-      <c r="F38" s="26" t="s">
+      <c r="F38" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="G38" s="26"/>
+      <c r="G38" s="24"/>
       <c r="H38" s="5"/>
       <c r="I38" s="6"/>
     </row>
@@ -1479,10 +1478,10 @@
         <v>63</v>
       </c>
       <c r="E39" s="5"/>
-      <c r="F39" s="24" t="s">
+      <c r="F39" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="G39" s="24"/>
+      <c r="G39" s="25"/>
       <c r="H39" s="5"/>
       <c r="I39" s="6"/>
     </row>
@@ -1493,10 +1492,10 @@
         <v>65</v>
       </c>
       <c r="E40" s="5"/>
-      <c r="F40" s="24" t="s">
+      <c r="F40" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="G40" s="24"/>
+      <c r="G40" s="25"/>
       <c r="H40" s="5"/>
       <c r="I40" s="6"/>
     </row>
@@ -1507,10 +1506,10 @@
       <c r="C41" s="23"/>
       <c r="D41" s="5"/>
       <c r="E41" s="5"/>
-      <c r="F41" s="24" t="s">
+      <c r="F41" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="G41" s="24"/>
+      <c r="G41" s="25"/>
       <c r="H41" s="5"/>
       <c r="I41" s="6"/>
     </row>
@@ -1533,10 +1532,10 @@
         <v>81</v>
       </c>
       <c r="E43" s="5"/>
-      <c r="F43" s="24" t="s">
+      <c r="F43" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="G43" s="24"/>
+      <c r="G43" s="25"/>
       <c r="H43" s="5"/>
       <c r="I43" s="6"/>
     </row>
@@ -1559,10 +1558,10 @@
         <v>86</v>
       </c>
       <c r="E45" s="5"/>
-      <c r="F45" s="24" t="s">
+      <c r="F45" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="G45" s="24"/>
+      <c r="G45" s="25"/>
       <c r="H45" s="5"/>
       <c r="I45" s="6"/>
     </row>
@@ -1573,10 +1572,10 @@
         <v>19</v>
       </c>
       <c r="E46" s="5"/>
-      <c r="F46" s="24" t="s">
+      <c r="F46" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="G46" s="24"/>
+      <c r="G46" s="25"/>
       <c r="H46" s="5"/>
       <c r="I46" s="6"/>
     </row>
@@ -1587,10 +1586,10 @@
       <c r="C47" s="23"/>
       <c r="D47" s="5"/>
       <c r="E47" s="5"/>
-      <c r="F47" s="25" t="s">
+      <c r="F47" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="G47" s="25"/>
+      <c r="G47" s="26"/>
       <c r="H47" s="5"/>
       <c r="I47" s="6"/>
     </row>
@@ -1601,24 +1600,24 @@
       <c r="C48" s="23"/>
       <c r="D48" s="5"/>
       <c r="E48" s="5"/>
-      <c r="F48" s="25" t="s">
+      <c r="F48" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="G48" s="25"/>
+      <c r="G48" s="26"/>
       <c r="H48" s="5"/>
       <c r="I48" s="6"/>
     </row>
     <row r="49" spans="2:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="19" t="s">
+      <c r="B49" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="C49" s="20"/>
+      <c r="C49" s="28"/>
       <c r="D49" s="11"/>
       <c r="E49" s="11"/>
-      <c r="F49" s="21" t="s">
+      <c r="F49" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="G49" s="21"/>
+      <c r="G49" s="29"/>
       <c r="H49" s="11"/>
       <c r="I49" s="13"/>
     </row>
@@ -1688,16 +1687,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B34:I34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="F47:G47"/>
     <mergeCell ref="B49:C49"/>
     <mergeCell ref="F49:G49"/>
     <mergeCell ref="B41:C41"/>
@@ -1708,6 +1697,16 @@
     <mergeCell ref="F45:G45"/>
     <mergeCell ref="B48:C48"/>
     <mergeCell ref="F48:G48"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="B34:I34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="B2:H2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
